--- a/relacion/Relación entre fuentes.xlsx
+++ b/relacion/Relación entre fuentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminstrador\Documents\3 - Ave Fenix\Propuesta\SED\relacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA13529-5C48-4B35-9887-26AC79212B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA1E1E1-4A54-4107-9074-6EEE36B3BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34590" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00B31CE8-CA4C-487F-A7EA-F3FADF69C375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00B31CE8-CA4C-487F-A7EA-F3FADF69C375}"/>
   </bookViews>
   <sheets>
     <sheet name="RELACION" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>DOVE_BEN_2025</t>
   </si>
   <si>
-    <t>ATEM_BEN_2025    </t>
-  </si>
-  <si>
     <t>RECUP_APREND_BEN_2024</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>FUENTES</t>
+  </si>
+  <si>
+    <t>ATEM_BEN_2025</t>
   </si>
 </sst>
 </file>
@@ -575,27 +575,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -607,31 +592,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,35 +951,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871D4D2A-147D-470E-8D27-84B0243C20F0}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1002,13 +988,21 @@
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>COUNTBLANK(C2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <f>COUNTBLANK(D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1016,13 +1010,21 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E54" si="0">COUNTBLANK(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F54" si="1">COUNTBLANK(D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1030,13 +1032,21 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1044,13 +1054,21 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1058,13 +1076,21 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1072,13 +1098,21 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1086,13 +1120,21 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1100,13 +1142,21 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1114,13 +1164,21 @@
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1128,13 +1186,21 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1142,13 +1208,21 @@
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1156,13 +1230,21 @@
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1170,13 +1252,21 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1184,13 +1274,21 @@
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -1198,13 +1296,21 @@
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
@@ -1212,13 +1318,21 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -1226,27 +1340,43 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>112</v>
+      <c r="C19" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1254,13 +1384,21 @@
         <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
@@ -1268,13 +1406,21 @@
         <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -1282,13 +1428,21 @@
         <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
@@ -1296,13 +1450,21 @@
         <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -1310,13 +1472,21 @@
         <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -1324,13 +1494,21 @@
         <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
@@ -1338,13 +1516,21 @@
         <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>4</v>
       </c>
@@ -1352,13 +1538,21 @@
         <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
@@ -1366,13 +1560,21 @@
         <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
@@ -1380,13 +1582,21 @@
         <v>16</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -1394,13 +1604,21 @@
         <v>16</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
@@ -1408,13 +1626,21 @@
         <v>16</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>49</v>
       </c>
@@ -1422,13 +1648,21 @@
         <v>16</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
@@ -1436,13 +1670,21 @@
         <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -1450,13 +1692,21 @@
         <v>16</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
@@ -1464,13 +1714,21 @@
         <v>16</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>53</v>
       </c>
@@ -1478,13 +1736,21 @@
         <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>54</v>
       </c>
@@ -1492,13 +1758,21 @@
         <v>16</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -1506,13 +1780,21 @@
         <v>16</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>56</v>
       </c>
@@ -1520,13 +1802,21 @@
         <v>16</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
@@ -1534,13 +1824,21 @@
         <v>81</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -1548,13 +1846,21 @@
         <v>81</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>78</v>
       </c>
@@ -1562,13 +1868,21 @@
         <v>81</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -1576,13 +1890,21 @@
         <v>81</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -1590,154 +1912,242 @@
         <v>81</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="B48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="B49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="B50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
